--- a/features_table.xlsx
+++ b/features_table.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm_Projects\fdu2025_bigdata_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6443DC-D3E4-4E00-BA94-FDDC5E07F4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5404A089-5E7B-4DF9-94BA-2C2D127ADDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-14508" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="公用指标" sheetId="1" r:id="rId1"/>
-    <sheet name="CS" sheetId="2" r:id="rId2"/>
-    <sheet name="ETF" sheetId="3" r:id="rId3"/>
-    <sheet name="INDX" sheetId="5" r:id="rId4"/>
-    <sheet name="Option" sheetId="4" r:id="rId5"/>
-    <sheet name="Future" sheetId="6" r:id="rId6"/>
+    <sheet name="支持的金融产品" sheetId="7" r:id="rId1"/>
+    <sheet name="能获取到的原始数据特征" sheetId="8" r:id="rId2"/>
+    <sheet name="公用指标" sheetId="1" r:id="rId3"/>
+    <sheet name="CS" sheetId="2" r:id="rId4"/>
+    <sheet name="ETF" sheetId="3" r:id="rId5"/>
+    <sheet name="INDX" sheetId="5" r:id="rId6"/>
+    <sheet name="Option" sheetId="4" r:id="rId7"/>
+    <sheet name="Future" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="207">
   <si>
     <t>**特征名称**</t>
   </si>
@@ -496,6 +498,162 @@
   </si>
   <si>
     <t>指数动量强度（风险调整后动量）</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Common Stock, 即股票</t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>Exchange Traded Fund, 即交易所交易基金</t>
+  </si>
+  <si>
+    <t>INDX</t>
+  </si>
+  <si>
+    <t>Index, 即指数</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
+    <t>Futures，即期货，包含股指、国债和商品期货</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>期权，包括目前国内已上市的全部期权合约</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>开盘价</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>收盘价</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>最高价</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>最低价</t>
+  </si>
+  <si>
+    <t>limit_up</t>
+  </si>
+  <si>
+    <t>涨停价</t>
+  </si>
+  <si>
+    <t>limit_down</t>
+  </si>
+  <si>
+    <t>跌停价</t>
+  </si>
+  <si>
+    <t>total_turnover</t>
+  </si>
+  <si>
+    <t>成交额</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>成交量</t>
+  </si>
+  <si>
+    <t>num_trades</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>成交笔数 （仅支持股票、ETF、LOF、可转债；提供范围为 2021-06-25 至今）</t>
+  </si>
+  <si>
+    <t>prev_close</t>
+  </si>
+  <si>
+    <t>昨日收盘价 （交易所披露的原始昨收价，复权方法对该字段无效）</t>
+  </si>
+  <si>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>结算价 （仅限期货期权日线数据）</t>
+  </si>
+  <si>
+    <t>prev_settlement</t>
+  </si>
+  <si>
+    <t>昨日结算价（仅限期货期权日线数据）</t>
+  </si>
+  <si>
+    <t>open_interest</t>
+  </si>
+  <si>
+    <t>累计持仓量（期货期权专用）</t>
+  </si>
+  <si>
+    <t>trading_date</t>
+  </si>
+  <si>
+    <t>pandas.Timestamp</t>
+  </si>
+  <si>
+    <t>交易日期（仅限期货分钟线数据），对应期货夜盘的情况</t>
+  </si>
+  <si>
+    <t>dominant_id</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>实际合约的 order_book_id，对应期货 888 系主力连续合约的情况</t>
+  </si>
+  <si>
+    <t>strike_price</t>
+  </si>
+  <si>
+    <t>行权价，仅限期权日线数据</t>
+  </si>
+  <si>
+    <t>contract_multiplier</t>
+  </si>
+  <si>
+    <t>合约乘数，仅限期权日线数据</t>
+  </si>
+  <si>
+    <t>iopv</t>
+  </si>
+  <si>
+    <t>场内基金实时估算净值</t>
+  </si>
+  <si>
+    <t>day_session_open</t>
+  </si>
+  <si>
+    <t>日盘开盘价（仅限期货期权日线数据）</t>
   </si>
 </sst>
 </file>
@@ -829,6 +987,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AD837C-CDB6-4212-A09F-A72247FC69DE}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8AA14F-0762-4624-BF3A-0D9BED818ED6}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C20"/>
@@ -1067,12 +1513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7A3B6-CFD0-4D7B-83BF-710AEE8CF6AF}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -1232,7 +1678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42766DAB-4781-4F98-9ADA-88714B1C7BB0}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C14"/>
@@ -1406,7 +1852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D62050-56A4-4B70-A790-9F8F0030FAC2}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C4"/>
@@ -1470,7 +1916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0950DB06-A55F-4264-BFEE-E16A644A1D47}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C8"/>
@@ -1578,7 +2024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7FD495-1063-42BE-A37A-72AB0DFA07EC}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C10"/>
